--- a/grocery_planner.xlsx
+++ b/grocery_planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.github\resupply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08235329-5782-4624-84C1-27E857010399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326ADAD8-EC07-446C-97A9-71C7C15B51BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88391B2A-5348-4463-9EC5-0E8995E24C58}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Almond butter toast and egg</t>
   </si>
@@ -489,7 +489,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,58 +526,16 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -588,10 +546,40 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
